--- a/cloud-data-warehouse/contoso-docs/ContosoHealth_DW_FRD.xlsx
+++ b/cloud-data-warehouse/contoso-docs/ContosoHealth_DW_FRD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\sqldataninja\azure-data-samples\cloud-data-warehouse\contoso-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFDCBF6-C4F1-4A48-AA41-B22587CB7684}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DBD679-6571-4C4E-B1D0-B7C3B2FA5ECB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="16080" windowWidth="29040" windowHeight="15990" tabRatio="825" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0-BUS Matrix" sheetId="5" r:id="rId1"/>
@@ -20,9 +20,11 @@
     <sheet name="4-Dim Fact Matrix" sheetId="1" r:id="rId5"/>
     <sheet name="5-Test Strategy" sheetId="11" r:id="rId6"/>
     <sheet name="A1-Naming Conventions" sheetId="9" r:id="rId7"/>
+    <sheet name="A2-Src Relational Matrix" sheetId="12" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'3-Consolidated Dim Attributes'!$A$2:$I$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'A2-Src Relational Matrix'!$A$2:$O$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="84">
   <si>
     <t>Business Processes Across Dimensions</t>
   </si>
@@ -63,84 +65,6 @@
   </si>
   <si>
     <t>D1</t>
-  </si>
-  <si>
-    <t>1.0 Business Process X</t>
-  </si>
-  <si>
-    <t>1.1 Sub Business Process X</t>
-  </si>
-  <si>
-    <t>1.1.1</t>
-  </si>
-  <si>
-    <t>1.1.2</t>
-  </si>
-  <si>
-    <t>1.1.3</t>
-  </si>
-  <si>
-    <t>1.1.4</t>
-  </si>
-  <si>
-    <t>1.1.5</t>
-  </si>
-  <si>
-    <t>1.1.6</t>
-  </si>
-  <si>
-    <t>1.1.7</t>
-  </si>
-  <si>
-    <t>1.1.8</t>
-  </si>
-  <si>
-    <t>1.1.9</t>
-  </si>
-  <si>
-    <t>1.1.10</t>
-  </si>
-  <si>
-    <t>1.1.11</t>
-  </si>
-  <si>
-    <t>1.1.12</t>
-  </si>
-  <si>
-    <t>1.1.13</t>
-  </si>
-  <si>
-    <t>1.2 Sub Business Process X</t>
-  </si>
-  <si>
-    <t>1.2.1</t>
-  </si>
-  <si>
-    <t>1.2.2</t>
-  </si>
-  <si>
-    <t>1.2.3</t>
-  </si>
-  <si>
-    <t>1.2.4</t>
-  </si>
-  <si>
-    <t>1.2.5</t>
-  </si>
-  <si>
-    <t>1.2.6</t>
-  </si>
-  <si>
-    <t>1.2.7</t>
-  </si>
-  <si>
-    <t>1.2.8</t>
-  </si>
-  <si>
-    <t>1.2.9</t>
-  </si>
-  <si>
-    <t>1.2.10</t>
   </si>
   <si>
     <t>Report Requirements Into Use Cases Across Business Processes</t>
@@ -274,13 +198,118 @@
   </si>
   <si>
     <t>Table Prefix</t>
+  </si>
+  <si>
+    <t>1.0 Clinical Events</t>
+  </si>
+  <si>
+    <t>Patient Encounter</t>
+  </si>
+  <si>
+    <t>Synthea</t>
+  </si>
+  <si>
+    <t>Jessica Johnson</t>
+  </si>
+  <si>
+    <t>Unknown*</t>
+  </si>
+  <si>
+    <t>allergies</t>
+  </si>
+  <si>
+    <t>careplans</t>
+  </si>
+  <si>
+    <t>conditions</t>
+  </si>
+  <si>
+    <t>encounters</t>
+  </si>
+  <si>
+    <t>imaging_studies</t>
+  </si>
+  <si>
+    <t>immunizations</t>
+  </si>
+  <si>
+    <t>medications</t>
+  </si>
+  <si>
+    <t>observations</t>
+  </si>
+  <si>
+    <t>organizations</t>
+  </si>
+  <si>
+    <t>patients</t>
+  </si>
+  <si>
+    <t>payer_transitions</t>
+  </si>
+  <si>
+    <t>payers</t>
+  </si>
+  <si>
+    <t>procedures</t>
+  </si>
+  <si>
+    <t>providers</t>
+  </si>
+  <si>
+    <t>Patient allergy data</t>
+  </si>
+  <si>
+    <t>Patient care plan data, including goals</t>
+  </si>
+  <si>
+    <t>Patient conditions or diagnoses</t>
+  </si>
+  <si>
+    <t>Patient encounter data</t>
+  </si>
+  <si>
+    <t>Patient imaging metadata</t>
+  </si>
+  <si>
+    <t>Patient immunization data</t>
+  </si>
+  <si>
+    <t>Patient medication data</t>
+  </si>
+  <si>
+    <t>Patient observations including vital signs and lab reports</t>
+  </si>
+  <si>
+    <t>Provider organizations including hospitals</t>
+  </si>
+  <si>
+    <t>Patient demographic data</t>
+  </si>
+  <si>
+    <t>Payer Transition data (ie changes in health insurance)</t>
+  </si>
+  <si>
+    <t>Payer organization data</t>
+  </si>
+  <si>
+    <t>Patient procedure data including surgeries</t>
+  </si>
+  <si>
+    <t>Clinicians that provide patient care</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,8 +384,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,12 +415,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,8 +472,20 @@
         <bgColor theme="8" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="39">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -639,35 +688,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -842,32 +865,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -918,7 +915,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -945,10 +942,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -958,13 +955,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -983,44 +980,44 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1041,13 +1038,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1056,33 +1053,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1094,110 +1079,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1205,7 +1196,368 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{194638BE-3702-41E7-A351-0202FCAB5CAE}"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="46">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1686,46 +2038,70 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table5" displayName="Table5" ref="H1:H25" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" headerRowCellStyle="Normal 2">
-  <autoFilter ref="H1:H25" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table5" displayName="Table5" ref="G1:G11" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42" headerRowCellStyle="Normal 2">
+  <autoFilter ref="G1:G11" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Dimension" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Dimension" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A2:G5" totalsRowShown="0" headerRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A2:G5" totalsRowShown="0" headerRowDxfId="40">
   <autoFilter ref="A2:G5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Metric Group # _x000a_(comes from design)"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Metric Group Name _x000a_(comes from design)"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="DELETE" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Use Case #" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Metric #" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="DELETE" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Use Case #" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Metric #" dataDxfId="37"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Metric Name"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Business Rule / Metric Definition _x000a_(from Metric Dictionary where possible)" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Business Rule / Metric Definition _x000a_(from Metric Dictionary where possible)" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:K3" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:K3" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
   <autoFilter ref="A1:K3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Target Type" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Test Type" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Load Type" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Test Case Name" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Test Case Description" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Test Proceedure" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Expected Behaviour" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="Actual Behaviour" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Test Result (pass/fail)" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="Script Catalog" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="Comments" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Target Type" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Test Type" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Load Type" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Test Case Name" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Test Case Description" dataDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Test Proceedure" dataDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Expected Behaviour" dataDxfId="24"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="Actual Behaviour" dataDxfId="23"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Test Result (pass/fail)" dataDxfId="22"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="Script Catalog" dataDxfId="21"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="Comments" dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{548FA0C5-BEA1-4BDF-92B8-5F7F7AFA762E}" name="Table3" displayName="Table3" ref="A2:O16" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3" headerRowBorderDxfId="18" tableBorderDxfId="19" totalsRowBorderDxfId="17">
+  <autoFilter ref="A2:O16" xr:uid="{82971898-E6FF-494D-B6F1-DDA21875ADAF}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{E2144D6D-691C-47AF-97B6-98195F0EB8F7}" name=" " dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{13068BD7-20BC-4B7F-90D5-24001F3CEAD0}" name="allergies" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{67F846C8-136C-4937-BEB6-CB9122FC6838}" name="careplans" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{EEFECB6E-ECC7-4E8F-A8FF-AAA9A3D0C378}" name="conditions" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{9C7B5352-F1D9-464C-AB73-945AFBDFC75D}" name="encounters" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{C1147160-25B8-44C4-AAA5-FA866117FB82}" name="imaging_studies" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{BAA3C39F-7803-48B8-9FC2-50E7DE601706}" name="immunizations" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{5791105B-3CBE-4883-8308-5A439B7A1DFE}" name="medications" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{C4ADD880-B525-4413-92D4-23B9D36BEA9F}" name="observations" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{1F54909A-B5E6-4C0B-A6D3-EBE4AF3D14E5}" name="organizations" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{3B5E232A-7C2E-4CA3-9C76-D64D2979BE2E}" name="patients" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{79302932-0B16-4E62-9C13-615F9D6C6BEC}" name="payer_transitions" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{8FEEED98-5FF6-4269-BDE1-5AE7FA9496C8}" name="payers" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{C526715B-2FD4-4487-851D-07BFD3E28B5F}" name="procedures" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{74407955-113A-439A-B71B-53B2FD01F414}" name="providers" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1994,347 +2370,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.9"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="7.1328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.86328125" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.40625" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7265625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:7" s="8" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="45" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="92" t="s">
+    <row r="2" spans="1:7" s="8" customFormat="1" ht="26.75" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="88" t="s">
+      <c r="E2" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="88" t="s">
+      <c r="F2" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="G2" s="28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="95" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="73" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="53"/>
-    </row>
-    <row r="4" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="96"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="56"/>
-    </row>
-    <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="56"/>
-    </row>
-    <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="96"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="56"/>
-    </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="96"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="76" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="56"/>
-    </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="96"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="76" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="71"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="56"/>
-    </row>
-    <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="96"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="56"/>
-    </row>
-    <row r="10" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="96"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="56"/>
-    </row>
-    <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="96"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="56"/>
-    </row>
-    <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="96"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="56"/>
-    </row>
-    <row r="13" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="96"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="56"/>
-    </row>
-    <row r="14" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="96"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="76" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="56"/>
-    </row>
-    <row r="15" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="96"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="81"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="60"/>
-    </row>
-    <row r="16" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="96"/>
-      <c r="B16" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="74"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="53"/>
-    </row>
-    <row r="17" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="96"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="71"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="56"/>
-    </row>
-    <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="96"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="71"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="56"/>
-    </row>
-    <row r="19" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="96"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="56"/>
-    </row>
-    <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="96"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="71"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="56"/>
-    </row>
-    <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="96"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="71"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="56"/>
-    </row>
-    <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="96"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="76" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="56"/>
-    </row>
-    <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="96"/>
-      <c r="B23" s="90"/>
-      <c r="C23" s="76" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="71"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="56"/>
-    </row>
-    <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="96"/>
-      <c r="B24" s="90"/>
-      <c r="C24" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="71"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="56"/>
-    </row>
-    <row r="25" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="96"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="77" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="78"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="58"/>
+    <row r="3" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A3" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="69">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C3" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="53"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A4" s="83"/>
+      <c r="B4" s="72">
+        <v>1.2</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="56"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A5" s="83"/>
+      <c r="B5" s="69">
+        <v>1.3</v>
+      </c>
+      <c r="C5" s="67"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="56"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A6" s="83"/>
+      <c r="B6" s="72">
+        <v>1.4</v>
+      </c>
+      <c r="C6" s="67"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="56"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A7" s="83"/>
+      <c r="B7" s="69">
+        <v>1.5</v>
+      </c>
+      <c r="C7" s="67"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="56"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A8" s="83"/>
+      <c r="B8" s="72">
+        <v>1.6</v>
+      </c>
+      <c r="C8" s="67"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="56"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A9" s="83"/>
+      <c r="B9" s="69">
+        <v>1.7</v>
+      </c>
+      <c r="C9" s="67"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="56"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A10" s="83"/>
+      <c r="B10" s="72">
+        <v>1.8</v>
+      </c>
+      <c r="C10" s="67"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="56"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A11" s="83"/>
+      <c r="B11" s="69">
+        <v>1.9</v>
+      </c>
+      <c r="C11" s="67"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B16:B25"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:A25"/>
-    <mergeCell ref="B3:B15"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2352,84 +2550,84 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" style="12"/>
-    <col min="3" max="3" width="31.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="86.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="8"/>
+    <col min="2" max="2" width="10.54296875" style="12"/>
+    <col min="3" max="3" width="31.86328125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="86.40625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-    </row>
-    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+    </row>
+    <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.75">
       <c r="A2" s="43" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
       <c r="B3" s="12" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D3" s="9"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
       <c r="D4" s="9"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
       <c r="D6" s="9"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
       <c r="D7" s="9"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
       <c r="D10" s="9"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
       <c r="D11" s="9"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
       <c r="D12" s="9"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
       <c r="F13" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.75">
       <c r="D17" s="9"/>
     </row>
   </sheetData>
@@ -2448,90 +2646,90 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="65.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.54296875" customWidth="1"/>
+    <col min="2" max="2" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="114.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="101"/>
-    </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
-        <v>40</v>
+    <row r="1" spans="1:8" ht="114.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A1" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="88"/>
+    </row>
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.75">
+      <c r="A2" s="57" t="s">
+        <v>14</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="102"/>
-    </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="61"/>
+        <v>18</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="89"/>
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" ht="18.25" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A3" s="57"/>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="29"/>
-      <c r="G3" s="67"/>
+      <c r="G3" s="63"/>
       <c r="H3" s="34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" s="55" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B4" s="55"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="69" t="s">
-        <v>48</v>
+      <c r="C4" s="64"/>
+      <c r="D4" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>22</v>
       </c>
       <c r="F4" s="55"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="63"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G4" s="66"/>
+      <c r="H4" s="59"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A5" s="55"/>
       <c r="B5" s="55"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
       <c r="F5" s="55"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="64"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2553,63 +2751,63 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.86328125" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.40625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.86328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.40625" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.40625" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.26953125" style="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.85546875" style="19"/>
+    <col min="9" max="9" width="15.86328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.86328125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-    </row>
-    <row r="2" spans="1:9" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+    </row>
+    <row r="2" spans="1:9" ht="32" x14ac:dyDescent="0.6">
       <c r="A2" s="15" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
@@ -2620,7 +2818,7 @@
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -2631,7 +2829,7 @@
       <c r="H4" s="23"/>
       <c r="I4" s="23"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A5" s="23"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
@@ -2642,7 +2840,7 @@
       <c r="H5" s="23"/>
       <c r="I5" s="23"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A6" s="23"/>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
@@ -2653,7 +2851,7 @@
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A7" s="23"/>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
@@ -2664,7 +2862,7 @@
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A8" s="23"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -2675,7 +2873,7 @@
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A9" s="23"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
@@ -2686,7 +2884,7 @@
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A10" s="23"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
@@ -2697,7 +2895,7 @@
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A11" s="23"/>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
@@ -2708,7 +2906,7 @@
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A12" s="23"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -2719,7 +2917,7 @@
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A13" s="23"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
@@ -2730,7 +2928,7 @@
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A14" s="23"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
@@ -2741,7 +2939,7 @@
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A15" s="23"/>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
@@ -2752,7 +2950,7 @@
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
@@ -2763,7 +2961,7 @@
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
@@ -2774,7 +2972,7 @@
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A18" s="23"/>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -2785,7 +2983,7 @@
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A19" s="23"/>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
@@ -2796,7 +2994,7 @@
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A20" s="23"/>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
@@ -2807,7 +3005,7 @@
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A21" s="23"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -2818,7 +3016,7 @@
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -2829,7 +3027,7 @@
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
@@ -2840,7 +3038,7 @@
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A24" s="23"/>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
@@ -2851,7 +3049,7 @@
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A25" s="23"/>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
@@ -2862,7 +3060,7 @@
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A26" s="23"/>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
@@ -2873,7 +3071,7 @@
       <c r="H26" s="23"/>
       <c r="I26" s="23"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A27" s="23"/>
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
@@ -2884,7 +3082,7 @@
       <c r="H27" s="23"/>
       <c r="I27" s="23"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A28" s="23"/>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
@@ -2895,7 +3093,7 @@
       <c r="H28" s="23"/>
       <c r="I28" s="23"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A29" s="23"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
@@ -2906,7 +3104,7 @@
       <c r="H29" s="23"/>
       <c r="I29" s="23"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A30" s="23"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
@@ -2917,7 +3115,7 @@
       <c r="H30" s="23"/>
       <c r="I30" s="23"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A31" s="23"/>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
@@ -2928,7 +3126,7 @@
       <c r="H31" s="23"/>
       <c r="I31" s="23"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A32" s="23"/>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
@@ -2939,7 +3137,7 @@
       <c r="H32" s="23"/>
       <c r="I32" s="23"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A33" s="23"/>
       <c r="B33" s="23"/>
       <c r="C33" s="23"/>
@@ -2950,7 +3148,7 @@
       <c r="H33" s="23"/>
       <c r="I33" s="23"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A34" s="23"/>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
@@ -2961,7 +3159,7 @@
       <c r="H34" s="23"/>
       <c r="I34" s="23"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A35" s="23"/>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
@@ -2972,7 +3170,7 @@
       <c r="H35" s="23"/>
       <c r="I35" s="23"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A36" s="23"/>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
@@ -2983,7 +3181,7 @@
       <c r="H36" s="23"/>
       <c r="I36" s="23"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A37" s="23"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
@@ -2994,7 +3192,7 @@
       <c r="H37" s="23"/>
       <c r="I37" s="23"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A38" s="23"/>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
@@ -3005,7 +3203,7 @@
       <c r="H38" s="23"/>
       <c r="I38" s="23"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A39" s="24"/>
       <c r="B39" s="24"/>
       <c r="C39" s="24"/>
@@ -3016,7 +3214,7 @@
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A40" s="24"/>
       <c r="B40" s="24"/>
       <c r="C40" s="24"/>
@@ -3027,7 +3225,7 @@
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A41" s="24"/>
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
@@ -3057,29 +3255,29 @@
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.7265625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
-        <v>59</v>
+    <row r="1" spans="1:2" ht="46.75" x14ac:dyDescent="0.75">
+      <c r="A1" s="91" t="s">
+        <v>33</v>
       </c>
       <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="105"/>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.75">
+      <c r="A2" s="92"/>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B3" s="4"/>
     </row>
@@ -3099,58 +3297,58 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.1328125" customWidth="1"/>
     <col min="6" max="6" width="53" customWidth="1"/>
-    <col min="7" max="7" width="54.5703125" customWidth="1"/>
-    <col min="8" max="8" width="53.140625" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="47.140625" customWidth="1"/>
-    <col min="11" max="11" width="27.140625" customWidth="1"/>
+    <col min="7" max="7" width="54.54296875" customWidth="1"/>
+    <col min="8" max="8" width="53.1328125" customWidth="1"/>
+    <col min="9" max="9" width="17.40625" customWidth="1"/>
+    <col min="10" max="10" width="47.1328125" customWidth="1"/>
+    <col min="11" max="11" width="27.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="84" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="84" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="84" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="84" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="84" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="84" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="84" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" s="85" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="86"/>
+    <row r="1" spans="1:11" ht="37" x14ac:dyDescent="0.75">
+      <c r="A1" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="75" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A2" s="76"/>
       <c r="B2" s="5"/>
       <c r="C2" s="47"/>
       <c r="D2" s="5"/>
@@ -3162,8 +3360,8 @@
       <c r="J2" s="5"/>
       <c r="K2" s="48"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="87"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A3" s="77"/>
       <c r="B3" s="49"/>
       <c r="C3" s="50"/>
       <c r="D3" s="49"/>
@@ -3191,323 +3389,323 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.40625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.75" thickBot="1" x14ac:dyDescent="0.95">
       <c r="A1" s="35" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" s="37"/>
       <c r="B2" s="38"/>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" s="30"/>
       <c r="B3" s="31"/>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" s="30"/>
       <c r="B4" s="31"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="30"/>
       <c r="B5" s="31"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" s="30"/>
       <c r="B6" s="31"/>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" s="39"/>
       <c r="B7" s="40"/>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" s="30"/>
       <c r="B8" s="31"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" s="30"/>
       <c r="B9" s="31"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.8">
       <c r="A10" s="30"/>
       <c r="B10" s="31"/>
       <c r="D10" s="42" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" s="30"/>
       <c r="B11" s="31"/>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" s="30"/>
       <c r="B12" s="31"/>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A13" s="30"/>
       <c r="B13" s="31"/>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A14" s="41"/>
       <c r="B14" s="40"/>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A15" s="41"/>
       <c r="B15" s="40"/>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A16" s="39"/>
       <c r="B16" s="40"/>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A17" s="39"/>
       <c r="B17" s="40"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A18" s="30"/>
       <c r="B18" s="31"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A19" s="39"/>
       <c r="B19" s="40"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A20" s="39"/>
       <c r="B20" s="40"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A21" s="30"/>
       <c r="B21" s="31"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A22" s="30"/>
       <c r="B22" s="40"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A23" s="30"/>
       <c r="B23" s="31"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A24" s="39"/>
       <c r="B24" s="40"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A25" s="39"/>
       <c r="B25" s="40"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A26" s="30"/>
       <c r="B26" s="31"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A27" s="30"/>
       <c r="B27" s="31"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A28" s="30"/>
       <c r="B28" s="31"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A29" s="30"/>
       <c r="B29" s="31"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A30" s="30"/>
       <c r="B30" s="31"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A31" s="30"/>
       <c r="B31" s="31"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A32" s="30"/>
       <c r="B32" s="31"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A33" s="30"/>
       <c r="B33" s="31"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A34" s="39"/>
       <c r="B34" s="40"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A35" s="30"/>
       <c r="B35" s="31"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A36" s="30"/>
       <c r="B36" s="31"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A37" s="30"/>
       <c r="B37" s="31"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A38" s="30"/>
       <c r="B38" s="31"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A39" s="30"/>
       <c r="B39" s="31"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A40" s="30"/>
       <c r="B40" s="31"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A41" s="30"/>
       <c r="B41" s="31"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A42" s="30"/>
       <c r="B42" s="31"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A43" s="30"/>
       <c r="B43" s="31"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A44" s="30"/>
       <c r="B44" s="31"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A45" s="30"/>
       <c r="B45" s="31"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A46" s="30"/>
       <c r="B46" s="31"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A47" s="30"/>
       <c r="B47" s="31"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A48" s="30"/>
       <c r="B48" s="31"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A49" s="30"/>
       <c r="B49" s="31"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A50" s="30"/>
       <c r="B50" s="31"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A51" s="30"/>
       <c r="B51" s="31"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A52" s="30"/>
       <c r="B52" s="31"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A53" s="30"/>
       <c r="B53" s="31"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A54" s="30"/>
       <c r="B54" s="31"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A55" s="30"/>
       <c r="B55" s="31"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A56" s="30"/>
       <c r="B56" s="31"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A57" s="30"/>
       <c r="B57" s="31"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A58" s="30"/>
       <c r="B58" s="31"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A59" s="39"/>
       <c r="B59" s="40"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A60" s="30"/>
       <c r="B60" s="31"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A61" s="30"/>
       <c r="B61" s="31"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A62" s="39"/>
       <c r="B62" s="40"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A63" s="39"/>
       <c r="B63" s="40"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A64" s="39"/>
       <c r="B64" s="40"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A65" s="30"/>
       <c r="B65" s="31"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A66" s="30"/>
       <c r="B66" s="31"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A67" s="30"/>
       <c r="B67" s="31"/>
     </row>
-    <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A68" s="32"/>
       <c r="B68" s="33"/>
     </row>
@@ -3517,4 +3715,503 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68462F1-7AD3-4F8A-B99A-29F49A29863E}">
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="15.7265625" style="93" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.58984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.40625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.2265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.04296875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.40625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.31640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.2265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.40625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="40.75" x14ac:dyDescent="0.75">
+      <c r="B1" s="103" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="103" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="103" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="103" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="103" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="103" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="103" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="103" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="103" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" s="103" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" s="103" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" s="103" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="95" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A2" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="98" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="98" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="98" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="98" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="98" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" s="99" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A3" s="102" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="96"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A4" s="102" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="96"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A5" s="102" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="96"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A6" s="102" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="N6" s="94"/>
+      <c r="O6" s="96" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A7" s="102" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="96"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A8" s="102" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="96"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A9" s="102" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9" s="94"/>
+      <c r="O9" s="96"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A10" s="102" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="96"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A11" s="102" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="94"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="96"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A12" s="102" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12" s="96"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A13" s="102" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="N13" s="94"/>
+      <c r="O13" s="96"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A14" s="102" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="N14" s="94"/>
+      <c r="O14" s="96"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A15" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="94"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="O15" s="96"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A16" s="102" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="100"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="100"/>
+      <c r="N16" s="100"/>
+      <c r="O16" s="101" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>